--- a/Linearisierungen/AC Kosten.xlsx
+++ b/Linearisierungen/AC Kosten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{4056DA5D-B2F9-4D2B-A764-E70FE008A96C}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{93D9F52F-8A07-4FDC-B18F-D00908AD8949}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>kW Kälte</t>
   </si>
@@ -36,10 +36,25 @@
     <t>Preisatlas einstufig</t>
   </si>
   <si>
-    <t>BROAD X einstufig</t>
+    <t>einstufig da Abwärme nicht kostenlos</t>
   </si>
   <si>
-    <t>einstufig da Abwärme nicht kostenlos</t>
+    <t>BROAD X einstufiger hot water chiller</t>
+  </si>
+  <si>
+    <t>Rückkühler</t>
+  </si>
+  <si>
+    <t>kW Wärme</t>
+  </si>
+  <si>
+    <t>Wärmeverhältnis</t>
+  </si>
+  <si>
+    <t>kEUR gesamt</t>
+  </si>
+  <si>
+    <t>Preisatlas Schlott mit Rückkühler</t>
   </si>
 </sst>
 </file>
@@ -63,10 +78,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -75,9 +99,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -145,10 +174,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$6:$A$19</c:f>
+              <c:f>Tabelle1!$A$6:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -186,61 +215,67 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$6:$B$19</c:f>
+              <c:f>Tabelle1!$E$6:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>50.729394387130746</c:v>
+                  <c:v>63.170394387130749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.484047022327221</c:v>
+                  <c:v>41.429047022327225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.974399979213942</c:v>
+                  <c:v>88.155399979213939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.921309302126375</c:v>
+                  <c:v>96.972309302126376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.786777027298825</c:v>
+                  <c:v>104.70777702729882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.916236453729482</c:v>
+                  <c:v>111.70723645372948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.683217544883206</c:v>
+                  <c:v>124.21421754488321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.10477943196585</c:v>
+                  <c:v>135.37577943196584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>121.16332960194772</c:v>
+                  <c:v>159.78432960194772</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133.24819061750813</c:v>
+                  <c:v>181.21919061750813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152.60423051909888</c:v>
+                  <c:v>219.2752305190989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>168.26071003420401</c:v>
+                  <c:v>253.63171003420402</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>181.68308717180625</c:v>
+                  <c:v>316.35597730991003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>193.58497730991002</c:v>
+                  <c:v>374.47762933482454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>429.81983931789875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,7 +317,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$6:$D$16</c:f>
+              <c:f>Tabelle1!$H$6:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -324,42 +359,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$6:$E$16</c:f>
+              <c:f>Tabelle1!$L$6:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>73.238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>140.71979999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143</c:v>
+                  <c:v>182.2568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>216.8312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189</c:v>
+                  <c:v>247.40559999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208</c:v>
+                  <c:v>275.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>249</c:v>
+                  <c:v>336.09140000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>289</c:v>
+                  <c:v>395.24020000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>334</c:v>
+                  <c:v>459.35160000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>401</c:v>
+                  <c:v>564.61180000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>475</c:v>
+                  <c:v>676.87200000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,10 +475,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Tabelle1!$A$6:$A$10,Tabelle1!$D$6)</c:f>
+              <c:f>(Tabelle1!$A$6:$A$10,Tabelle1!$H$6,Tabelle1!$A$25)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -461,33 +496,39 @@
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Tabelle1!$B$6:$B$10,Tabelle1!$E$6)</c:f>
+              <c:f>(Tabelle1!$E$6:$E$10,Tabelle1!$L$6,Tabelle1!$B$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50.729394387130746</c:v>
+                  <c:v>63.170394387130749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.484047022327221</c:v>
+                  <c:v>41.429047022327225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.974399979213942</c:v>
+                  <c:v>88.155399979213939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.921309302126375</c:v>
+                  <c:v>96.972309302126376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.786777027298825</c:v>
+                  <c:v>104.70777702729882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>73.238</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>193.32387030992871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +544,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>250-5115</c:v>
+            <c:v>1535-5115</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -526,7 +567,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="75"/>
+            <c:intercept val="182"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -568,138 +609,102 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Tabelle1!$A$10:$A$19,Tabelle1!$D$7:$D$16)</c:f>
+              <c:f>(Tabelle1!$A$17:$A$20,Tabelle1!$H$11:$H$16,Tabelle1!$A$30:$A$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>3069</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>5115</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>767</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>1279</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>1535</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>2558</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>3069</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>4092</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>5115</c:v>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Tabelle1!$B$10:$B$19,Tabelle1!$E$7:$E$16)</c:f>
+              <c:f>(Tabelle1!$E$17:$E$20,Tabelle1!$L$11:$L$16,Tabelle1!$B$30:$B$33)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>84.786777027298825</c:v>
+                  <c:v>253.63171003420402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.916236453729482</c:v>
+                  <c:v>316.35597730991003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.683217544883206</c:v>
+                  <c:v>374.47762933482454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.10477943196585</c:v>
+                  <c:v>429.81983931789875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.16332960194772</c:v>
+                  <c:v>275.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133.24819061750813</c:v>
+                  <c:v>336.09140000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.60423051909888</c:v>
+                  <c:v>395.24020000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>168.26071003420401</c:v>
+                  <c:v>459.35160000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>181.68308717180625</c:v>
+                  <c:v>564.61180000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>193.58497730991002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>475</c:v>
+                  <c:v>676.87200000000007</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>477.17543754370661</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>569.10150283883968</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>644.8751078553629</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>710.53097302107585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +720,114 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>1500-5115</c:v>
+            <c:v>Schlott</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$25:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$25:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>193.32387030992871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261.26607094212056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311.59800340800399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353.08604010514421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>421.10674658698713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477.17543754370661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>569.10150283883968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>644.8751078553629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>710.53097302107585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C3C-4843-A58E-BBA9584D5929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>250-1535</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -727,80 +839,167 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="100"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Tabelle1!$A$16:$A$19,Tabelle1!$D$11:$D$16)</c:f>
+              <c:f>(Tabelle1!$A$10:$A$16,Tabelle1!$H$7:$H$11,Tabelle1!$A$25:$A$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>1535</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>2558</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>3069</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>4092</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>5115</c:v>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Tabelle1!$B$16:$B$19,Tabelle1!$E$11:$E$16)</c:f>
+              <c:f>(Tabelle1!$E$10:$E$16,Tabelle1!$L$7:$L$11,Tabelle1!$B$25:$B$29)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>152.60423051909888</c:v>
+                  <c:v>104.70777702729882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168.26071003420401</c:v>
+                  <c:v>111.70723645372948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181.68308717180625</c:v>
+                  <c:v>124.21421754488321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193.58497730991002</c:v>
+                  <c:v>135.37577943196584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208</c:v>
+                  <c:v>159.78432960194772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249</c:v>
+                  <c:v>181.21919061750813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>289</c:v>
+                  <c:v>219.2752305190989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>334</c:v>
+                  <c:v>140.71979999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>401</c:v>
+                  <c:v>182.2568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>475</c:v>
+                  <c:v>216.8312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>247.40559999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275.98</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>193.32387030992871</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>261.26607094212056</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>311.59800340800399</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>353.08604010514421</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>421.10674658698713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +1007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-404B-4928-9B0B-929A7C9E6271}"/>
+              <c16:uniqueId val="{00000003-3C3C-4843-A58E-BBA9584D5929}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1559,16 +1758,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3669</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11553</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>529018</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>339846</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>87753</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75984</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>188328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1859,253 +2058,746 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E20"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f>(14740.2095*A6^(-0.6849)+3.29)*A6/1000</f>
         <v>50.729394387130746</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6">
+        <f>A6*(1+1/$G$2)</f>
+        <v>121.42857142857144</v>
+      </c>
+      <c r="D6" s="2">
+        <f>0.0154*C6+10.571</f>
+        <v>12.441000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <f>B6+D6</f>
+        <v>63.170394387130749</v>
+      </c>
+      <c r="H6" s="1">
         <v>205</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>H6*(1+1/$G$2)</f>
+        <v>497.85714285714289</v>
+      </c>
+      <c r="K6" s="2">
+        <f>0.0154*J6+10.571</f>
+        <v>18.238</v>
+      </c>
+      <c r="L6" s="1">
+        <f>I6+K6</f>
+        <v>73.238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f t="shared" ref="B7:B19" si="0">(14740.2095*A7^(-0.6849)+3.29)*A7/1000</f>
         <v>30.484047022327221</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7">
+        <f t="shared" ref="C7:C19" si="1">A7*(1+1/$G$2)</f>
+        <v>24.285714285714288</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D19" si="2">0.0154*C7+10.571</f>
+        <v>10.945</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:E19" si="3">B7+D7</f>
+        <v>41.429047022327225</v>
+      </c>
+      <c r="H7" s="1">
         <v>512</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" ref="J7:J19" si="4">H7*(1+1/$G$2)</f>
+        <v>1243.4285714285716</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K19" si="5">0.0154*J7+10.571</f>
+        <v>29.719799999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L19" si="6">I7+K7</f>
+        <v>140.71979999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>150</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>71.974399979213942</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>364.28571428571433</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>16.181000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>88.155399979213939</v>
+      </c>
+      <c r="H8" s="1">
         <v>767</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="3">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>1862.714285714286</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="5"/>
+        <v>39.256800000000005</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="6"/>
+        <v>182.2568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>78.921309302126375</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>485.71428571428578</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>18.051000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="3"/>
+        <v>96.972309302126376</v>
+      </c>
+      <c r="H9" s="1">
         <v>1023</v>
       </c>
-      <c r="E9" s="1">
+      <c r="I9" s="3">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>2484.4285714285716</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>48.831200000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="6"/>
+        <v>216.8312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>250</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>84.786777027298825</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>607.14285714285722</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>19.920999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>104.70777702729882</v>
+      </c>
+      <c r="H10" s="1">
         <v>1279</v>
       </c>
-      <c r="E10" s="1">
+      <c r="I10" s="3">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>3106.1428571428573</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="5"/>
+        <v>58.4056</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="6"/>
+        <v>247.40559999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>89.916236453729482</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>728.57142857142867</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>21.791000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="3"/>
+        <v>111.70723645372948</v>
+      </c>
+      <c r="H11" s="1">
         <v>1535</v>
       </c>
-      <c r="E11" s="1">
+      <c r="I11" s="3">
         <v>208</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>3727.8571428571431</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="5"/>
+        <v>67.98</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="6"/>
+        <v>275.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>400</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>98.683217544883206</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>971.42857142857156</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>25.531000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="3"/>
+        <v>124.21421754488321</v>
+      </c>
+      <c r="H12" s="1">
         <v>2046</v>
       </c>
-      <c r="E12" s="1">
+      <c r="I12" s="3">
         <v>249</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>4968.8571428571431</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="5"/>
+        <v>87.091400000000007</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="6"/>
+        <v>336.09140000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>106.10477943196585</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1214.2857142857144</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>29.271000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="3"/>
+        <v>135.37577943196584</v>
+      </c>
+      <c r="H13" s="1">
         <v>2558</v>
       </c>
-      <c r="E13" s="1">
+      <c r="I13" s="3">
         <v>289</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>6212.2857142857147</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="5"/>
+        <v>106.2402</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="6"/>
+        <v>395.24020000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>750</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>121.16332960194772</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>1821.4285714285716</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>38.621000000000002</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="3"/>
+        <v>159.78432960194772</v>
+      </c>
+      <c r="H14" s="1">
         <v>3069</v>
       </c>
-      <c r="E14" s="1">
+      <c r="I14" s="3">
         <v>334</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>7453.2857142857147</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="5"/>
+        <v>125.3516</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="6"/>
+        <v>459.35160000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>133.24819061750813</v>
       </c>
-      <c r="D15" s="1">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2428.5714285714289</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>47.971000000000004</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>181.21919061750813</v>
+      </c>
+      <c r="H15" s="1">
         <v>4092</v>
       </c>
-      <c r="E15" s="1">
+      <c r="I15" s="3">
         <v>401</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>9937.7142857142862</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>163.61180000000002</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="6"/>
+        <v>564.61180000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>152.60423051909888</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>3642.8571428571431</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>66.671000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="3"/>
+        <v>219.2752305190989</v>
+      </c>
+      <c r="H16" s="1">
         <v>5115</v>
       </c>
-      <c r="E16" s="1">
+      <c r="I16" s="3">
         <v>475</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>12422.142857142859</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="5"/>
+        <v>201.87200000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="6"/>
+        <v>676.87200000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2000</v>
       </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
+      <c r="B17" s="3">
+        <f>(14740.2095*A17^(-0.6849)+3.29)*A17/1000</f>
         <v>168.26071003420401</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C17">
+        <f>A17*(1+1/$G$2)</f>
+        <v>4857.1428571428578</v>
+      </c>
+      <c r="D17" s="2">
+        <f>0.0154*C17+10.571</f>
+        <v>85.371000000000009</v>
+      </c>
+      <c r="E17" s="1">
+        <f>B17+D17</f>
+        <v>253.63171003420402</v>
+      </c>
+      <c r="H17" s="1">
         <v>6138</v>
       </c>
-      <c r="E17" s="1">
+      <c r="I17" s="3">
         <v>533</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>14906.571428571429</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="5"/>
+        <v>240.13220000000001</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="6"/>
+        <v>773.13220000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2500</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>181.68308717180625</v>
-      </c>
-      <c r="D18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B18" s="3">
+        <f>(14740.2095*A18^(-0.6849)+3.29)*A18/1000</f>
+        <v>193.58497730991002</v>
+      </c>
+      <c r="C18">
+        <f>A18*(1+1/$G$2)</f>
+        <v>7285.7142857142862</v>
+      </c>
+      <c r="D18" s="2">
+        <f>0.0154*C18+10.571</f>
+        <v>122.77100000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <f>B18+D18</f>
+        <v>316.35597730991003</v>
+      </c>
+      <c r="H18" s="1">
         <v>8184</v>
       </c>
-      <c r="E18" s="1">
+      <c r="I18" s="3">
         <v>668</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>19875.428571428572</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="5"/>
+        <v>316.65260000000006</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="6"/>
+        <v>984.65260000000012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>4000</v>
+      </c>
+      <c r="B19" s="3">
+        <f>(14740.2095*A19^(-0.6849)+3.29)*A19/1000</f>
+        <v>214.30662933482452</v>
+      </c>
+      <c r="C19">
+        <f>A19*(1+1/$G$2)</f>
+        <v>9714.2857142857156</v>
+      </c>
+      <c r="D19" s="2">
+        <f>0.0154*C19+10.571</f>
+        <v>160.17100000000002</v>
+      </c>
+      <c r="E19" s="1">
+        <f>B19+D19</f>
+        <v>374.47762933482454</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10230</v>
+      </c>
+      <c r="I19" s="3">
+        <v>795</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>24844.285714285717</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="5"/>
+        <v>393.17300000000006</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="6"/>
+        <v>1188.173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5000</v>
+      </c>
+      <c r="B20" s="3">
+        <f>(14740.2095*A20^(-0.6849)+3.29)*A20/1000</f>
+        <v>232.24883931789873</v>
+      </c>
+      <c r="C20">
+        <f>A20*(1+1/$G$2)</f>
+        <v>12142.857142857145</v>
+      </c>
+      <c r="D20" s="2">
+        <f>0.0154*C20+10.571</f>
+        <v>197.57100000000003</v>
+      </c>
+      <c r="E20" s="1">
+        <f>B20+D20</f>
+        <v>429.81983931789875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <f>17554.18*A25^(-0.5655)*A25/1000</f>
+        <v>193.32387030992871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>500</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B33" si="7">17554.18*A26^(-0.5655)*A26/1000</f>
+        <v>261.26607094212056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>750</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="7"/>
+        <v>311.59800340800399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>353.08604010514421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1500</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="7"/>
+        <v>421.10674658698713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="7"/>
+        <v>477.17543754370661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>3000</v>
       </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>193.58497730991002</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10230</v>
-      </c>
-      <c r="E19" s="1">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>569.10150283883968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="7"/>
+        <v>644.8751078553629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="7"/>
+        <v>710.53097302107585</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Linearisierungen/AC Kosten.xlsx
+++ b/Linearisierungen/AC Kosten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="291" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{93D9F52F-8A07-4FDC-B18F-D00908AD8949}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{7F459B70-D520-483B-943E-E504955522AD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>kW Wärme</t>
   </si>
   <si>
-    <t>Wärmeverhältnis</t>
-  </si>
-  <si>
     <t>kEUR gesamt</t>
   </si>
   <si>
     <t>Preisatlas Schlott mit Rückkühler</t>
+  </si>
+  <si>
+    <t>Auslegungs-Wärmeverhältnis:</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -107,6 +107,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -233,49 +236,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>63.170394387130749</c:v>
+                  <c:v>63.202747328307218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.429047022327225</c:v>
+                  <c:v>41.435517610562513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.155399979213939</c:v>
+                  <c:v>88.252458802743348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.972309302126376</c:v>
+                  <c:v>97.101721066832255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.70777702729882</c:v>
+                  <c:v>104.86954173318118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.70723645372948</c:v>
+                  <c:v>111.90135410078831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.21421754488321</c:v>
+                  <c:v>124.47304107429497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.37577943196584</c:v>
+                  <c:v>135.69930884373056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.78432960194772</c:v>
+                  <c:v>160.26962371959479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181.21919061750813</c:v>
+                  <c:v>181.86624944103755</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>219.2752305190989</c:v>
+                  <c:v>220.24581875439299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>253.63171003420402</c:v>
+                  <c:v>254.92582768126283</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>316.35597730991003</c:v>
+                  <c:v>318.29715378049826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>374.47762933482454</c:v>
+                  <c:v>377.06586462894217</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>429.81983931789875</c:v>
+                  <c:v>433.05513343554583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,37 +367,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>73.238</c:v>
+                  <c:v>73.370647058823522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.71979999999999</c:v>
+                  <c:v>141.05109411764707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>182.2568</c:v>
+                  <c:v>182.75309411764707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216.8312</c:v>
+                  <c:v>217.4931411764706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.40559999999999</c:v>
+                  <c:v>248.23318823529411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>275.98</c:v>
+                  <c:v>276.97323529411767</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>336.09140000000002</c:v>
+                  <c:v>337.41528235294118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>395.24020000000002</c:v>
+                  <c:v>396.89537647058825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>459.35160000000002</c:v>
+                  <c:v>461.33742352941181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>564.61180000000002</c:v>
+                  <c:v>567.25956470588233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>676.87200000000007</c:v>
+                  <c:v>680.18170588235296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,22 +513,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.170394387130749</c:v>
+                  <c:v>63.202747328307218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.429047022327225</c:v>
+                  <c:v>41.435517610562513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.155399979213939</c:v>
+                  <c:v>88.252458802743348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.972309302126376</c:v>
+                  <c:v>97.101721066832255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.70777702729882</c:v>
+                  <c:v>104.86954173318118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.238</c:v>
+                  <c:v>73.370647058823522</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>193.32387030992871</c:v>
@@ -665,34 +668,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>253.63171003420402</c:v>
+                  <c:v>254.92582768126283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>316.35597730991003</c:v>
+                  <c:v>318.29715378049826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>374.47762933482454</c:v>
+                  <c:v>377.06586462894217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.81983931789875</c:v>
+                  <c:v>433.05513343554583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275.98</c:v>
+                  <c:v>276.97323529411767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>336.09140000000002</c:v>
+                  <c:v>337.41528235294118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>395.24020000000002</c:v>
+                  <c:v>396.89537647058825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>459.35160000000002</c:v>
+                  <c:v>461.33742352941181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>564.61180000000002</c:v>
+                  <c:v>567.25956470588233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>676.87200000000007</c:v>
+                  <c:v>680.18170588235296</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>477.17543754370661</c:v>
@@ -854,6 +857,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.806618476772012E-3"/>
+                  <c:y val="-7.6484033245844268E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -951,40 +960,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>104.70777702729882</c:v>
+                  <c:v>104.86954173318118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.70723645372948</c:v>
+                  <c:v>111.90135410078831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.21421754488321</c:v>
+                  <c:v>124.47304107429497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.37577943196584</c:v>
+                  <c:v>135.69930884373056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.78432960194772</c:v>
+                  <c:v>160.26962371959479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>181.21919061750813</c:v>
+                  <c:v>181.86624944103755</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>219.2752305190989</c:v>
+                  <c:v>220.24581875439299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.71979999999999</c:v>
+                  <c:v>141.05109411764707</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>182.2568</c:v>
+                  <c:v>182.75309411764707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>216.8312</c:v>
+                  <c:v>217.4931411764706</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>247.40559999999999</c:v>
+                  <c:v>248.23318823529411</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>275.98</c:v>
+                  <c:v>276.97323529411767</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>193.32387030992871</c:v>
@@ -2060,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2078,8 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2077,13 +2087,13 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>0.7</v>
+      <c r="G2" s="7">
+        <v>0.68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2120,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -2135,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2148,15 +2158,15 @@
       </c>
       <c r="C6">
         <f>A6*(1+1/$G$2)</f>
-        <v>121.42857142857144</v>
+        <v>123.52941176470588</v>
       </c>
       <c r="D6" s="2">
         <f>0.0154*C6+10.571</f>
-        <v>12.441000000000001</v>
+        <v>12.47335294117647</v>
       </c>
       <c r="E6" s="1">
         <f>B6+D6</f>
-        <v>63.170394387130749</v>
+        <v>63.202747328307218</v>
       </c>
       <c r="H6" s="1">
         <v>205</v>
@@ -2166,15 +2176,15 @@
       </c>
       <c r="J6">
         <f>H6*(1+1/$G$2)</f>
-        <v>497.85714285714289</v>
+        <v>506.47058823529414</v>
       </c>
       <c r="K6" s="2">
         <f>0.0154*J6+10.571</f>
-        <v>18.238</v>
+        <v>18.370647058823529</v>
       </c>
       <c r="L6" s="1">
         <f>I6+K6</f>
-        <v>73.238</v>
+        <v>73.370647058823522</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2182,20 +2192,20 @@
         <v>10</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:B19" si="0">(14740.2095*A7^(-0.6849)+3.29)*A7/1000</f>
+        <f t="shared" ref="B7:B16" si="0">(14740.2095*A7^(-0.6849)+3.29)*A7/1000</f>
         <v>30.484047022327221</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C19" si="1">A7*(1+1/$G$2)</f>
-        <v>24.285714285714288</v>
+        <f t="shared" ref="C7:C16" si="1">A7*(1+1/$G$2)</f>
+        <v>24.705882352941178</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D19" si="2">0.0154*C7+10.571</f>
-        <v>10.945</v>
+        <f t="shared" ref="D7:D16" si="2">0.0154*C7+10.571</f>
+        <v>10.951470588235294</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E19" si="3">B7+D7</f>
-        <v>41.429047022327225</v>
+        <f t="shared" ref="E7:E16" si="3">B7+D7</f>
+        <v>41.435517610562513</v>
       </c>
       <c r="H7" s="1">
         <v>512</v>
@@ -2205,15 +2215,15 @@
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J19" si="4">H7*(1+1/$G$2)</f>
-        <v>1243.4285714285716</v>
+        <v>1264.9411764705883</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ref="K7:K19" si="5">0.0154*J7+10.571</f>
-        <v>29.719799999999999</v>
+        <v>30.051094117647061</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L19" si="6">I7+K7</f>
-        <v>140.71979999999999</v>
+        <v>141.05109411764707</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2226,15 +2236,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>364.28571428571433</v>
+        <v>370.58823529411768</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="2"/>
-        <v>16.181000000000001</v>
+        <v>16.278058823529413</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>88.155399979213939</v>
+        <v>88.252458802743348</v>
       </c>
       <c r="H8" s="1">
         <v>767</v>
@@ -2244,15 +2254,15 @@
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>1862.714285714286</v>
+        <v>1894.9411764705883</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="5"/>
-        <v>39.256800000000005</v>
+        <v>39.753094117647059</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="6"/>
-        <v>182.2568</v>
+        <v>182.75309411764707</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2265,15 +2275,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>485.71428571428578</v>
+        <v>494.11764705882354</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>18.051000000000002</v>
+        <v>18.18041176470588</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="3"/>
-        <v>96.972309302126376</v>
+        <v>97.101721066832255</v>
       </c>
       <c r="H9" s="1">
         <v>1023</v>
@@ -2283,15 +2293,15 @@
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>2484.4285714285716</v>
+        <v>2527.4117647058824</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="5"/>
-        <v>48.831200000000003</v>
+        <v>49.493141176470587</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="6"/>
-        <v>216.8312</v>
+        <v>217.4931411764706</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2304,15 +2314,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>607.14285714285722</v>
+        <v>617.64705882352939</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>19.920999999999999</v>
+        <v>20.082764705882354</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
-        <v>104.70777702729882</v>
+        <v>104.86954173318118</v>
       </c>
       <c r="H10" s="1">
         <v>1279</v>
@@ -2322,15 +2332,15 @@
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>3106.1428571428573</v>
+        <v>3159.8823529411766</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="5"/>
-        <v>58.4056</v>
+        <v>59.233188235294122</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="6"/>
-        <v>247.40559999999999</v>
+        <v>248.23318823529411</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2343,15 +2353,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>728.57142857142867</v>
+        <v>741.17647058823536</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="2"/>
-        <v>21.791000000000004</v>
+        <v>21.985117647058825</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
-        <v>111.70723645372948</v>
+        <v>111.90135410078831</v>
       </c>
       <c r="H11" s="1">
         <v>1535</v>
@@ -2361,15 +2371,15 @@
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>3727.8571428571431</v>
+        <v>3792.3529411764707</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="5"/>
-        <v>67.98</v>
+        <v>68.973235294117657</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="6"/>
-        <v>275.98</v>
+        <v>276.97323529411767</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2382,15 +2392,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>971.42857142857156</v>
+        <v>988.23529411764707</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
-        <v>25.531000000000002</v>
+        <v>25.789823529411763</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>124.21421754488321</v>
+        <v>124.47304107429497</v>
       </c>
       <c r="H12" s="1">
         <v>2046</v>
@@ -2400,15 +2410,15 @@
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>4968.8571428571431</v>
+        <v>5054.8235294117649</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="5"/>
-        <v>87.091400000000007</v>
+        <v>88.415282352941176</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="6"/>
-        <v>336.09140000000002</v>
+        <v>337.41528235294118</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2421,15 +2431,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>1214.2857142857144</v>
+        <v>1235.2941176470588</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>29.271000000000001</v>
+        <v>29.594529411764704</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>135.37577943196584</v>
+        <v>135.69930884373056</v>
       </c>
       <c r="H13" s="1">
         <v>2558</v>
@@ -2439,15 +2449,15 @@
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>6212.2857142857147</v>
+        <v>6319.7647058823532</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="5"/>
-        <v>106.2402</v>
+        <v>107.89537647058825</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="6"/>
-        <v>395.24020000000002</v>
+        <v>396.89537647058825</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2460,15 +2470,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>1821.4285714285716</v>
+        <v>1852.9411764705883</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>38.621000000000002</v>
+        <v>39.10629411764706</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="3"/>
-        <v>159.78432960194772</v>
+        <v>160.26962371959479</v>
       </c>
       <c r="H14" s="1">
         <v>3069</v>
@@ -2478,15 +2488,15 @@
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>7453.2857142857147</v>
+        <v>7582.2352941176478</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="5"/>
-        <v>125.3516</v>
+        <v>127.33742352941178</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="6"/>
-        <v>459.35160000000002</v>
+        <v>461.33742352941181</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2499,15 +2509,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>2428.5714285714289</v>
+        <v>2470.5882352941176</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
-        <v>47.971000000000004</v>
+        <v>48.61805882352941</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="3"/>
-        <v>181.21919061750813</v>
+        <v>181.86624944103755</v>
       </c>
       <c r="H15" s="1">
         <v>4092</v>
@@ -2517,15 +2527,15 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>9937.7142857142862</v>
+        <v>10109.64705882353</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>163.61180000000002</v>
+        <v>166.25956470588235</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="6"/>
-        <v>564.61180000000002</v>
+        <v>567.25956470588233</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2538,15 +2548,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>3642.8571428571431</v>
+        <v>3705.8823529411766</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="2"/>
-        <v>66.671000000000006</v>
+        <v>67.641588235294122</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="3"/>
-        <v>219.2752305190989</v>
+        <v>220.24581875439299</v>
       </c>
       <c r="H16" s="1">
         <v>5115</v>
@@ -2556,15 +2566,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>12422.142857142859</v>
+        <v>12637.058823529413</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="5"/>
-        <v>201.87200000000001</v>
+        <v>205.18170588235296</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="6"/>
-        <v>676.87200000000007</v>
+        <v>680.18170588235296</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2577,15 +2587,15 @@
       </c>
       <c r="C17">
         <f>A17*(1+1/$G$2)</f>
-        <v>4857.1428571428578</v>
+        <v>4941.1764705882351</v>
       </c>
       <c r="D17" s="2">
         <f>0.0154*C17+10.571</f>
-        <v>85.371000000000009</v>
+        <v>86.665117647058821</v>
       </c>
       <c r="E17" s="1">
         <f>B17+D17</f>
-        <v>253.63171003420402</v>
+        <v>254.92582768126283</v>
       </c>
       <c r="H17" s="1">
         <v>6138</v>
@@ -2595,15 +2605,15 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>14906.571428571429</v>
+        <v>15164.470588235296</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="5"/>
-        <v>240.13220000000001</v>
+        <v>244.10384705882356</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="6"/>
-        <v>773.13220000000001</v>
+        <v>777.10384705882359</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2616,15 +2626,15 @@
       </c>
       <c r="C18">
         <f>A18*(1+1/$G$2)</f>
-        <v>7285.7142857142862</v>
+        <v>7411.7647058823532</v>
       </c>
       <c r="D18" s="2">
         <f>0.0154*C18+10.571</f>
-        <v>122.77100000000002</v>
+        <v>124.71217647058825</v>
       </c>
       <c r="E18" s="1">
         <f>B18+D18</f>
-        <v>316.35597730991003</v>
+        <v>318.29715378049826</v>
       </c>
       <c r="H18" s="1">
         <v>8184</v>
@@ -2634,15 +2644,15 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>19875.428571428572</v>
+        <v>20219.294117647059</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="5"/>
-        <v>316.65260000000006</v>
+        <v>321.94812941176474</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="6"/>
-        <v>984.65260000000012</v>
+        <v>989.94812941176474</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2655,15 +2665,15 @@
       </c>
       <c r="C19">
         <f>A19*(1+1/$G$2)</f>
-        <v>9714.2857142857156</v>
+        <v>9882.3529411764703</v>
       </c>
       <c r="D19" s="2">
         <f>0.0154*C19+10.571</f>
-        <v>160.17100000000002</v>
+        <v>162.75923529411764</v>
       </c>
       <c r="E19" s="1">
         <f>B19+D19</f>
-        <v>374.47762933482454</v>
+        <v>377.06586462894217</v>
       </c>
       <c r="H19" s="1">
         <v>10230</v>
@@ -2673,15 +2683,15 @@
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>24844.285714285717</v>
+        <v>25274.117647058825</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="5"/>
-        <v>393.17300000000006</v>
+        <v>399.79241176470595</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="6"/>
-        <v>1188.173</v>
+        <v>1194.792411764706</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2694,20 +2704,20 @@
       </c>
       <c r="C20">
         <f>A20*(1+1/$G$2)</f>
-        <v>12142.857142857145</v>
+        <v>12352.941176470589</v>
       </c>
       <c r="D20" s="2">
         <f>0.0154*C20+10.571</f>
-        <v>197.57100000000003</v>
+        <v>200.80629411764707</v>
       </c>
       <c r="E20" s="1">
         <f>B20+D20</f>
-        <v>429.81983931789875</v>
+        <v>433.05513343554583</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">

--- a/Linearisierungen/AC Kosten.xlsx
+++ b/Linearisierungen/AC Kosten.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{7F459B70-D520-483B-943E-E504955522AD}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2D4A1B7E-BEF9-406F-B12D-6670F8BBF54C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -151,7 +152,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Preisatlas</c:v>
+            <c:v>IUTA Preisatlas</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -162,7 +163,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -286,7 +287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-404B-4928-9B0B-929A7C9E6271}"/>
+              <c16:uniqueId val="{00000000-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -304,8 +305,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -405,7 +406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-404B-4928-9B0B-929A7C9E6271}"/>
+              <c16:uniqueId val="{00000001-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -426,10 +427,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>Regression</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -438,43 +440,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.14042054185375494"/>
-                  <c:y val="7.5736366287547388E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -539,7 +505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-404B-4928-9B0B-929A7C9E6271}"/>
+              <c16:uniqueId val="{00000003-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -563,7 +529,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -572,43 +538,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="182"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.5326604045074189E-2"/>
-                  <c:y val="0.28680446194225723"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -715,7 +645,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-404B-4928-9B0B-929A7C9E6271}"/>
+              <c16:uniqueId val="{00000005-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -733,16 +663,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -822,7 +750,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3C3C-4843-A58E-BBA9584D5929}"/>
+              <c16:uniqueId val="{00000006-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -846,52 +774,16 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="100"/>
+            <c:intercept val="101"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.806618476772012E-3"/>
-                  <c:y val="-7.6484033245844268E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1016,7 +908,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3C3C-4843-A58E-BBA9584D5929}"/>
+              <c16:uniqueId val="{00000008-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1035,6 +927,8 @@
         <c:axId val="331193184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5115"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1052,18 +946,101 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nennkälteleistung</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [MW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1500" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1074,12 +1051,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1092,6 +1066,10 @@
         <c:crossAx val="1965374448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="1965374448"/>
@@ -1114,18 +1092,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Investitionskosten [Tsd. €]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1136,12 +1178,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1157,12 +1196,76 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15228427050508145"/>
+          <c:y val="0.10118289096588759"/>
+          <c:w val="0.17186803031402037"/>
+          <c:h val="0.20004382255823583"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1179,12 +1282,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1199,11 +1297,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1763,31 +1856,35 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BE2EB946-7C7B-453D-819A-AE3F9995C241}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>529018</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>112128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>75984</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>188328</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9305925" cy="6000750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EEFB52-6DD8-4CAE-BF5E-340A54CB459F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD27D5D-8AC1-450A-9B6C-1A96C0201692}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1800,7 +1897,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2069,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,6 +2908,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Linearisierungen/AC Kosten.xlsx
+++ b/Linearisierungen/AC Kosten.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="329" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2D4A1B7E-BEF9-406F-B12D-6670F8BBF54C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -61,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,25 +128,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -237,55 +224,54 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>63.202747328307218</c:v>
+                  <c:v>59.432953210660159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.435517610562513</c:v>
+                  <c:v>37.141958787033104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.252458802743348</c:v>
+                  <c:v>85.792076449802181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.101721066832255</c:v>
+                  <c:v>95.29604459624403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.86954173318118</c:v>
+                  <c:v>103.71857114494588</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.90135410078831</c:v>
+                  <c:v>111.40508939490596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.47304107429497</c:v>
+                  <c:v>125.2861881331185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.69930884373056</c:v>
+                  <c:v>137.82186766725997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160.26962371959479</c:v>
+                  <c:v>165.66571195488891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181.86624944103755</c:v>
+                  <c:v>190.53586708809638</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>220.24581875439299</c:v>
+                  <c:v>235.46249522498124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>254.92582768126283</c:v>
+                  <c:v>276.68956297538045</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>318.29715378049826</c:v>
+                  <c:v>353.15500672167474</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>377.06586462894217</c:v>
+                  <c:v>425.01783521717743</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>433.05513343554583</c:v>
+                  <c:v>494.10122167083989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -368,43 +354,42 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>73.370647058823522</c:v>
+                  <c:v>71.630441176470583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>141.05109411764707</c:v>
+                  <c:v>143.33078235294118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>182.75309411764707</c:v>
+                  <c:v>188.37178235294118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.4931411764706</c:v>
+                  <c:v>226.46392352941177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248.23318823529411</c:v>
+                  <c:v>260.55606470588236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>276.97323529411767</c:v>
+                  <c:v>292.64820588235295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>337.41528235294118</c:v>
+                  <c:v>359.78134705882354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>396.89537647058825</c:v>
+                  <c:v>425.96562941176472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>461.33742352941181</c:v>
+                  <c:v>497.09877058823531</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>567.25956470588233</c:v>
+                  <c:v>616.41619411764702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>680.18170588235296</c:v>
+                  <c:v>742.73361764705885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -439,8 +424,6 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -479,22 +462,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.202747328307218</c:v>
+                  <c:v>59.432953210660159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.435517610562513</c:v>
+                  <c:v>37.141958787033104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.252458802743348</c:v>
+                  <c:v>85.792076449802181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.101721066832255</c:v>
+                  <c:v>95.29604459624403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.86954173318118</c:v>
+                  <c:v>103.71857114494588</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.370647058823522</c:v>
+                  <c:v>71.630441176470583</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>193.32387030992871</c:v>
@@ -502,8 +485,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -536,9 +518,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="182"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:intercept val="181"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -598,34 +578,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>254.92582768126283</c:v>
+                  <c:v>276.68956297538045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>318.29715378049826</c:v>
+                  <c:v>353.15500672167474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>377.06586462894217</c:v>
+                  <c:v>425.01783521717743</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433.05513343554583</c:v>
+                  <c:v>494.10122167083989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>276.97323529411767</c:v>
+                  <c:v>292.64820588235295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>337.41528235294118</c:v>
+                  <c:v>359.78134705882354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>396.89537647058825</c:v>
+                  <c:v>425.96562941176472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>461.33742352941181</c:v>
+                  <c:v>497.09877058823531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>567.25956470588233</c:v>
+                  <c:v>616.41619411764702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>680.18170588235296</c:v>
+                  <c:v>742.73361764705885</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>477.17543754370661</c:v>
@@ -642,8 +622,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -747,8 +726,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
@@ -781,9 +759,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="101"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:intercept val="97"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -852,40 +828,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>104.86954173318118</c:v>
+                  <c:v>103.71857114494588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.90135410078831</c:v>
+                  <c:v>111.40508939490596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.47304107429497</c:v>
+                  <c:v>125.2861881331185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.69930884373056</c:v>
+                  <c:v>137.82186766725997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160.26962371959479</c:v>
+                  <c:v>165.66571195488891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>181.86624944103755</c:v>
+                  <c:v>190.53586708809638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220.24581875439299</c:v>
+                  <c:v>235.46249522498124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141.05109411764707</c:v>
+                  <c:v>143.33078235294118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>182.75309411764707</c:v>
+                  <c:v>188.37178235294118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>217.4931411764706</c:v>
+                  <c:v>226.46392352941177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>248.23318823529411</c:v>
+                  <c:v>260.55606470588236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>276.97323529411767</c:v>
+                  <c:v>292.64820588235295</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
                   <c:v>193.32387030992871</c:v>
@@ -905,32 +881,23 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-2A61-4630-AC96-F93D546A883B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="331193184"/>
-        <c:axId val="1965374448"/>
+        <c:dLbls/>
+        <c:axId val="188745600"/>
+        <c:axId val="188749312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331193184"/>
+        <c:axId val="188745600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5115"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1003,7 +970,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1011,29 +978,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1060,10 +1006,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1965374448"/>
+        <c:crossAx val="188749312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -1072,11 +1018,10 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1965374448"/>
+        <c:axId val="188749312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1133,7 +1078,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1141,26 +1086,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1187,10 +1114,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331193184"/>
+        <c:crossAx val="188745600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1230,10 +1157,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15228427050508145"/>
+          <c:x val="0.15228427050508148"/>
           <c:y val="0.10118289096588759"/>
-          <c:w val="0.17186803031402037"/>
-          <c:h val="0.20004382255823583"/>
+          <c:w val="0.17186803031402043"/>
+          <c:h val="0.20004382255823586"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1262,20 +1189,19 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1294,7 +1220,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1857,13 +1783,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BE2EB946-7C7B-453D-819A-AE3F9995C241}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -1878,7 +1804,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD27D5D-8AC1-450A-9B6C-1A96C0201692}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBD27D5D-8AC1-450A-9B6C-1A96C0201692}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1979,7 +1905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2156,21 +2082,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -2180,7 +2106,7 @@
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2188,15 +2114,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="G2" s="7">
         <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2213,7 +2139,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>50</v>
       </c>
@@ -2257,13 +2183,13 @@
         <f>A6*(1+1/$G$2)</f>
         <v>123.52941176470588</v>
       </c>
-      <c r="D6" s="2">
-        <f>0.0154*C6+10.571</f>
-        <v>12.47335294117647</v>
+      <c r="D6">
+        <f>0.0207*C6+6.1465</f>
+        <v>8.703558823529411</v>
       </c>
       <c r="E6" s="1">
         <f>B6+D6</f>
-        <v>63.202747328307218</v>
+        <v>59.432953210660159</v>
       </c>
       <c r="H6" s="1">
         <v>205</v>
@@ -2275,16 +2201,16 @@
         <f>H6*(1+1/$G$2)</f>
         <v>506.47058823529414</v>
       </c>
-      <c r="K6" s="2">
-        <f>0.0154*J6+10.571</f>
-        <v>18.370647058823529</v>
+      <c r="K6">
+        <f>0.0207*J6+6.1465</f>
+        <v>16.63044117647059</v>
       </c>
       <c r="L6" s="1">
         <f>I6+K6</f>
-        <v>73.370647058823522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71.630441176470583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>10</v>
       </c>
@@ -2296,13 +2222,13 @@
         <f t="shared" ref="C7:C16" si="1">A7*(1+1/$G$2)</f>
         <v>24.705882352941178</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:D16" si="2">0.0154*C7+10.571</f>
-        <v>10.951470588235294</v>
+      <c r="D7">
+        <f t="shared" ref="D7:D20" si="2">0.0207*C7+6.1465</f>
+        <v>6.6579117647058821</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ref="E7:E16" si="3">B7+D7</f>
-        <v>41.435517610562513</v>
+        <v>37.141958787033104</v>
       </c>
       <c r="H7" s="1">
         <v>512</v>
@@ -2314,16 +2240,16 @@
         <f t="shared" ref="J7:J19" si="4">H7*(1+1/$G$2)</f>
         <v>1264.9411764705883</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" ref="K7:K19" si="5">0.0154*J7+10.571</f>
-        <v>30.051094117647061</v>
+      <c r="K7">
+        <f t="shared" ref="K7:K19" si="5">0.0207*J7+6.1465</f>
+        <v>32.330782352941178</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L19" si="6">I7+K7</f>
-        <v>141.05109411764707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143.33078235294118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>150</v>
       </c>
@@ -2335,13 +2261,13 @@
         <f t="shared" si="1"/>
         <v>370.58823529411768</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <f t="shared" si="2"/>
-        <v>16.278058823529413</v>
+        <v>13.817676470588236</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>88.252458802743348</v>
+        <v>85.792076449802181</v>
       </c>
       <c r="H8" s="1">
         <v>767</v>
@@ -2353,16 +2279,16 @@
         <f t="shared" si="4"/>
         <v>1894.9411764705883</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <f t="shared" si="5"/>
-        <v>39.753094117647059</v>
+        <v>45.371782352941182</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="6"/>
-        <v>182.75309411764707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>188.37178235294118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>200</v>
       </c>
@@ -2374,13 +2300,13 @@
         <f t="shared" si="1"/>
         <v>494.11764705882354</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <f t="shared" si="2"/>
-        <v>18.18041176470588</v>
+        <v>16.374735294117649</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="3"/>
-        <v>97.101721066832255</v>
+        <v>95.29604459624403</v>
       </c>
       <c r="H9" s="1">
         <v>1023</v>
@@ -2392,16 +2318,16 @@
         <f t="shared" si="4"/>
         <v>2527.4117647058824</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <f t="shared" si="5"/>
-        <v>49.493141176470587</v>
+        <v>58.463923529411758</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="6"/>
-        <v>217.4931411764706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>226.46392352941177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>250</v>
       </c>
@@ -2413,13 +2339,13 @@
         <f t="shared" si="1"/>
         <v>617.64705882352939</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <f t="shared" si="2"/>
-        <v>20.082764705882354</v>
+        <v>18.931794117647058</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
-        <v>104.86954173318118</v>
+        <v>103.71857114494588</v>
       </c>
       <c r="H10" s="1">
         <v>1279</v>
@@ -2431,16 +2357,16 @@
         <f t="shared" si="4"/>
         <v>3159.8823529411766</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <f t="shared" si="5"/>
-        <v>59.233188235294122</v>
+        <v>71.556064705882363</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="6"/>
-        <v>248.23318823529411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>260.55606470588236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>300</v>
       </c>
@@ -2452,13 +2378,13 @@
         <f t="shared" si="1"/>
         <v>741.17647058823536</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <f t="shared" si="2"/>
-        <v>21.985117647058825</v>
+        <v>21.488852941176471</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
-        <v>111.90135410078831</v>
+        <v>111.40508939490596</v>
       </c>
       <c r="H11" s="1">
         <v>1535</v>
@@ -2470,16 +2396,16 @@
         <f t="shared" si="4"/>
         <v>3792.3529411764707</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <f t="shared" si="5"/>
-        <v>68.973235294117657</v>
+        <v>84.64820588235294</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="6"/>
-        <v>276.97323529411767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>292.64820588235295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>400</v>
       </c>
@@ -2491,13 +2417,13 @@
         <f t="shared" si="1"/>
         <v>988.23529411764707</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <f t="shared" si="2"/>
-        <v>25.789823529411763</v>
+        <v>26.602970588235294</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>124.47304107429497</v>
+        <v>125.2861881331185</v>
       </c>
       <c r="H12" s="1">
         <v>2046</v>
@@ -2509,16 +2435,16 @@
         <f t="shared" si="4"/>
         <v>5054.8235294117649</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <f t="shared" si="5"/>
-        <v>88.415282352941176</v>
+        <v>110.78134705882353</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="6"/>
-        <v>337.41528235294118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>359.78134705882354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>500</v>
       </c>
@@ -2530,13 +2456,13 @@
         <f t="shared" si="1"/>
         <v>1235.2941176470588</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <f t="shared" si="2"/>
-        <v>29.594529411764704</v>
+        <v>31.717088235294117</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>135.69930884373056</v>
+        <v>137.82186766725997</v>
       </c>
       <c r="H13" s="1">
         <v>2558</v>
@@ -2548,16 +2474,16 @@
         <f t="shared" si="4"/>
         <v>6319.7647058823532</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <f t="shared" si="5"/>
-        <v>107.89537647058825</v>
+        <v>136.96562941176472</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="6"/>
-        <v>396.89537647058825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>425.96562941176472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>750</v>
       </c>
@@ -2569,13 +2495,13 @@
         <f t="shared" si="1"/>
         <v>1852.9411764705883</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <f t="shared" si="2"/>
-        <v>39.10629411764706</v>
+        <v>44.502382352941183</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="3"/>
-        <v>160.26962371959479</v>
+        <v>165.66571195488891</v>
       </c>
       <c r="H14" s="1">
         <v>3069</v>
@@ -2587,16 +2513,16 @@
         <f t="shared" si="4"/>
         <v>7582.2352941176478</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <f t="shared" si="5"/>
-        <v>127.33742352941178</v>
+        <v>163.09877058823531</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="6"/>
-        <v>461.33742352941181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>497.09877058823531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -2608,13 +2534,13 @@
         <f t="shared" si="1"/>
         <v>2470.5882352941176</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <f t="shared" si="2"/>
-        <v>48.61805882352941</v>
+        <v>57.287676470588238</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="3"/>
-        <v>181.86624944103755</v>
+        <v>190.53586708809638</v>
       </c>
       <c r="H15" s="1">
         <v>4092</v>
@@ -2626,16 +2552,16 @@
         <f t="shared" si="4"/>
         <v>10109.64705882353</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <f t="shared" si="5"/>
-        <v>166.25956470588235</v>
+        <v>215.41619411764705</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="6"/>
-        <v>567.25956470588233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>616.41619411764702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -2647,13 +2573,13 @@
         <f t="shared" si="1"/>
         <v>3705.8823529411766</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <f t="shared" si="2"/>
-        <v>67.641588235294122</v>
+        <v>82.858264705882362</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="3"/>
-        <v>220.24581875439299</v>
+        <v>235.46249522498124</v>
       </c>
       <c r="H16" s="1">
         <v>5115</v>
@@ -2665,16 +2591,16 @@
         <f t="shared" si="4"/>
         <v>12637.058823529413</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <f t="shared" si="5"/>
-        <v>205.18170588235296</v>
+        <v>267.73361764705885</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="6"/>
-        <v>680.18170588235296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>742.73361764705885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -2686,13 +2612,13 @@
         <f>A17*(1+1/$G$2)</f>
         <v>4941.1764705882351</v>
       </c>
-      <c r="D17" s="2">
-        <f>0.0154*C17+10.571</f>
-        <v>86.665117647058821</v>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>108.42885294117647</v>
       </c>
       <c r="E17" s="1">
         <f>B17+D17</f>
-        <v>254.92582768126283</v>
+        <v>276.68956297538045</v>
       </c>
       <c r="H17" s="1">
         <v>6138</v>
@@ -2704,16 +2630,16 @@
         <f t="shared" si="4"/>
         <v>15164.470588235296</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <f t="shared" si="5"/>
-        <v>244.10384705882356</v>
+        <v>320.05104117647062</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="6"/>
-        <v>777.10384705882359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>853.05104117647056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -2725,13 +2651,13 @@
         <f>A18*(1+1/$G$2)</f>
         <v>7411.7647058823532</v>
       </c>
-      <c r="D18" s="2">
-        <f>0.0154*C18+10.571</f>
-        <v>124.71217647058825</v>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>159.57002941176472</v>
       </c>
       <c r="E18" s="1">
         <f>B18+D18</f>
-        <v>318.29715378049826</v>
+        <v>353.15500672167474</v>
       </c>
       <c r="H18" s="1">
         <v>8184</v>
@@ -2743,16 +2669,16 @@
         <f t="shared" si="4"/>
         <v>20219.294117647059</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <f t="shared" si="5"/>
-        <v>321.94812941176474</v>
+        <v>424.6858882352941</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="6"/>
-        <v>989.94812941176474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1092.685888235294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>4000</v>
       </c>
@@ -2764,13 +2690,13 @@
         <f>A19*(1+1/$G$2)</f>
         <v>9882.3529411764703</v>
       </c>
-      <c r="D19" s="2">
-        <f>0.0154*C19+10.571</f>
-        <v>162.75923529411764</v>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>210.71120588235294</v>
       </c>
       <c r="E19" s="1">
         <f>B19+D19</f>
-        <v>377.06586462894217</v>
+        <v>425.01783521717743</v>
       </c>
       <c r="H19" s="1">
         <v>10230</v>
@@ -2782,16 +2708,16 @@
         <f t="shared" si="4"/>
         <v>25274.117647058825</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <f t="shared" si="5"/>
-        <v>399.79241176470595</v>
+        <v>529.32073529411764</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="6"/>
-        <v>1194.792411764706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1324.3207352941176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>5000</v>
       </c>
@@ -2803,21 +2729,21 @@
         <f>A20*(1+1/$G$2)</f>
         <v>12352.941176470589</v>
       </c>
-      <c r="D20" s="2">
-        <f>0.0154*C20+10.571</f>
-        <v>200.80629411764707</v>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>261.85238235294116</v>
       </c>
       <c r="E20" s="1">
         <f>B20+D20</f>
-        <v>433.05513343554583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>494.10122167083989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>250</v>
       </c>
@@ -2834,7 +2760,7 @@
         <v>193.32387030992871</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>500</v>
       </c>
@@ -2843,7 +2769,7 @@
         <v>261.26607094212056</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>750</v>
       </c>
@@ -2852,7 +2778,7 @@
         <v>311.59800340800399</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>1000</v>
       </c>
@@ -2861,7 +2787,7 @@
         <v>353.08604010514421</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1500</v>
       </c>
@@ -2870,7 +2796,7 @@
         <v>421.10674658698713</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -2879,7 +2805,7 @@
         <v>477.17543754370661</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -2888,7 +2814,7 @@
         <v>569.10150283883968</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>4000</v>
       </c>
@@ -2897,7 +2823,7 @@
         <v>644.8751078553629</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>5000</v>
       </c>
